--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr02.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F93A75-F7A3-4B8D-A340-63168791EC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16FCA64-ADD2-43D1-A8E6-2C4FB040087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,11 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -412,6 +403,18 @@
   </si>
   <si>
     <t>NegTransAcDate = , AND NegTransTlrNo = , AND NegTransTxtNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringUpDate2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BringUpDate DESC,CustId ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BringUpDate &lt;= , AND AcDate =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,10 +628,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -640,9 +643,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -655,9 +655,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,9 +671,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,22 +691,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,7 +712,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,26 +1071,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
@@ -1111,78 +1102,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1201,462 +1192,462 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
         <v>8</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>8</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <v>10</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <v>8</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <v>8</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="23">
         <v>8</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>5</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <v>16</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="25">
         <v>8</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="25">
         <v>7</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="24">
         <v>16</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <v>10</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>7</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="129.6">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="25">
         <v>4</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="23">
         <v>8</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="81">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>1</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="22" t="s">
+      <c r="F24" s="23"/>
+      <c r="G24" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>8</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>6</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>8</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="19" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="23"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>6</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>23</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>24</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>6</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1676,11 +1667,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1743,6 +1734,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr02.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16FCA64-ADD2-43D1-A8E6-2C4FB040087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC800EF2-5901-4D17-93DB-C8E272D01195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -416,6 +412,9 @@
   <si>
     <t>BringUpDate &lt;= , AND AcDate =</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -749,9 +748,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -789,9 +788,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,26 +823,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,26 +858,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1071,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1196,12 +1161,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8">
       <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>29</v>
@@ -1214,7 +1179,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1232,7 +1197,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1250,7 +1215,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1268,7 +1233,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -1286,7 +1251,7 @@
       </c>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1304,7 +1269,7 @@
       </c>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1322,7 +1287,7 @@
       </c>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1342,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1360,7 +1325,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1378,7 +1343,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -1396,7 +1361,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8">
       <c r="A20" s="17">
         <v>12</v>
       </c>
@@ -1415,25 +1380,25 @@
       <c r="F20" s="23"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8">
       <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="D21" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="E21" s="22">
         <v>7</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="129.6">
@@ -1441,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>51</v>
@@ -1457,7 +1422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1475,7 +1440,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="81">
@@ -1483,10 +1448,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>41</v>
@@ -1496,7 +1461,7 @@
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1504,10 +1469,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>43</v>
@@ -1516,38 +1481,38 @@
         <v>1</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="22">
         <v>8</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8">
       <c r="A27" s="17">
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>41</v>
@@ -1556,18 +1521,18 @@
         <v>6</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="17">
         <v>20</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>43</v>
@@ -1576,10 +1541,10 @@
         <v>8</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8">
       <c r="A29" s="17">
         <v>21</v>
       </c>
@@ -1590,21 +1555,21 @@
         <v>57</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8">
       <c r="A30" s="17">
         <v>22</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>60</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>41</v>
@@ -1615,31 +1580,31 @@
       <c r="F30" s="23"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8">
       <c r="A31" s="17">
         <v>23</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>62</v>
-      </c>
       <c r="D31" s="21" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8">
       <c r="A32" s="17">
         <v>24</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>41</v>
@@ -1669,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -1695,10 +1660,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -1706,43 +1671,43 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
